--- a/Construction/Metro-Chennai/Payment.xlsx
+++ b/Construction/Metro-Chennai/Payment.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>TOILET WORK REUIREMENTS - CIVIL</t>
   </si>
@@ -72,67 +72,10 @@
     <t>BREAKER</t>
   </si>
   <si>
-    <t>yt</t>
-  </si>
-  <si>
-    <t>WEEKLY LABOUR PAYMENT - 23.06.25 TO 28.06.25</t>
-  </si>
-  <si>
-    <t>KUPPAN TEAM LABOUR REPORT</t>
-  </si>
-  <si>
     <t>Fire Sump &amp; T2</t>
   </si>
   <si>
     <t>GRAND TOTAL</t>
-  </si>
-  <si>
-    <t>WEEKLY MATERIAL PAYMENT  - 23.06.25 TO 28.06.25</t>
-  </si>
-  <si>
-    <t>MATERIALS</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>Nails &amp; Binding wire</t>
-  </si>
-  <si>
-    <t>Note Books</t>
-  </si>
-  <si>
-    <t>EB</t>
-  </si>
-  <si>
-    <t>Redoxide and Thread</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Cutting wheel</t>
-  </si>
-  <si>
-    <t>cutting machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrical material </t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Water cane</t>
-  </si>
-  <si>
-    <t>MS pipe for barbender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deduct </t>
   </si>
 </sst>
 </file>
@@ -518,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -571,11 +514,112 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,159 +628,6 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -771,61 +662,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -952,7 +830,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,34 +842,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1090,96 +968,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,73 +1377,73 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.15"/>
     <row r="2" s="1" customFormat="1" ht="15.15" spans="1:4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.15"/>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="44">
+      <c r="A6" s="32">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="45">
-        <f>'LL details'!H16</f>
+      <c r="C6" s="33">
+        <f>'LL details'!H12</f>
         <v>40600</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="18.65" customHeight="1" spans="1:4">
-      <c r="A7" s="44">
+      <c r="A7" s="32">
         <v>2</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="45">
-        <f>'LL details'!F40</f>
-        <v>5325</v>
-      </c>
-      <c r="D7" s="43"/>
+      <c r="C7" s="33" t="e">
+        <f>'LL details'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1"/>
     <row r="11" s="1" customFormat="1" ht="15.15" spans="1:4">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="37" t="e">
         <f>SUM(C6:C7)</f>
-        <v>45925</v>
-      </c>
-      <c r="D11" s="50"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1607,10 +1457,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1655,638 +1505,258 @@
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="7:7">
-      <c r="G2" s="1" t="s">
+    <row r="2" customFormat="1" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45831</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="20"/>
     </row>
-    <row r="3" customFormat="1" ht="15.15" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" customFormat="1" ht="15.15" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45832</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="B5" s="11">
+        <v>45833</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>4</v>
       </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="31"/>
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45834</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="20"/>
     </row>
-    <row r="7" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A7" s="13">
+    <row r="7" customFormat="1" spans="1:9">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>45835</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="14">
-        <v>45831</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>45836</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:9">
-      <c r="A8" s="13">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17">
-        <v>45832</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="6">
+        <v>4</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" customFormat="1" spans="1:9">
-      <c r="A9" s="13">
-        <v>3</v>
-      </c>
-      <c r="B9" s="17">
-        <v>45833</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6">
+        <f>SUM(D3:D8)</f>
+        <v>9</v>
+      </c>
+      <c r="E9" s="6">
+        <f>SUM(E3:E8)</f>
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
-        <v>3</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>4</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="31"/>
+      <c r="G9" s="6">
+        <f>SUM(G3:G8)</f>
+        <v>16</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" customFormat="1" spans="1:9">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="17">
-        <v>45834</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>4</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="31"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="10">
+        <v>850</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1100</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" customFormat="1" spans="1:9">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="17">
-        <v>45835</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>4</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="31"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15">
+        <f>D9*D10</f>
+        <v>10800</v>
+      </c>
+      <c r="E11" s="15">
+        <f>E9*E10</f>
+        <v>10200</v>
+      </c>
+      <c r="F11" s="15">
+        <f>F9*F10</f>
+        <v>2000</v>
+      </c>
+      <c r="G11" s="15">
+        <f>G9*G10</f>
+        <v>17600</v>
+      </c>
+      <c r="H11" s="15">
+        <f>SUM(D11:G11)</f>
+        <v>40600</v>
+      </c>
+      <c r="I11" s="21"/>
     </row>
-    <row r="12" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17">
-        <v>45836</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12">
-        <v>4</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="12">
-        <f>SUM(D7:D12)</f>
-        <v>9</v>
-      </c>
-      <c r="E13" s="12">
-        <f>SUM(E7:E12)</f>
-        <v>12</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2</v>
-      </c>
-      <c r="G13" s="12">
-        <f>SUM(G7:G12)</f>
-        <v>16</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:9">
-      <c r="A14" s="18"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16">
-        <v>1200</v>
-      </c>
-      <c r="E14" s="16">
-        <v>850</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1100</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:9">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21">
-        <f>D13*D14</f>
-        <v>10800</v>
-      </c>
-      <c r="E15" s="21">
-        <f>E13*E14</f>
-        <v>10200</v>
-      </c>
-      <c r="F15" s="21">
-        <f>F13*F14</f>
-        <v>2000</v>
-      </c>
-      <c r="G15" s="21">
-        <f>G13*G14</f>
-        <v>17600</v>
-      </c>
-      <c r="H15" s="21">
-        <f>SUM(D15:G15)</f>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18">
+        <f>D11+E11</f>
+        <v>21000</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
+        <f>SUM(H11:H11)</f>
         <v>40600</v>
       </c>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:9">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24">
-        <f>D15+E15</f>
-        <v>21000</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24">
-        <f>SUM(H15:H15)</f>
-        <v>40600</v>
-      </c>
-      <c r="I16" s="37"/>
-    </row>
-    <row r="17" customFormat="1" ht="15.15" spans="1:9">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" ht="15.15"/>
-    <row r="19" ht="15.15" spans="1:7">
-      <c r="A19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" ht="15.15" spans="1:7">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14">
-        <v>45831</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16">
-        <v>520</v>
-      </c>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16">
-        <v>100</v>
-      </c>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16">
-        <v>600</v>
-      </c>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14">
-        <v>45832</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16">
-        <v>50</v>
-      </c>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16">
-        <v>1450</v>
-      </c>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14">
-        <v>45833</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16">
-        <f>400+600</f>
-        <v>1000</v>
-      </c>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16">
-        <v>200</v>
-      </c>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14">
-        <v>45834</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="16">
-        <f>D30*E30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14">
-        <v>45835</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16">
-        <v>320</v>
-      </c>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16">
-        <v>150</v>
-      </c>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16">
-        <v>500</v>
-      </c>
-      <c r="G33" s="31"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16">
-        <v>12838</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14">
-        <v>45836</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16">
-        <v>245</v>
-      </c>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16">
-        <v>190</v>
-      </c>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16">
-        <v>-12838</v>
-      </c>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16">
-        <f>D39*E39</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21">
-        <f>SUM(F23:F39)</f>
-        <v>5325</v>
-      </c>
-      <c r="G40" s="34"/>
-    </row>
-    <row r="41" ht="15.15" spans="1:7">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="35"/>
+      <c r="I12" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A19:G19"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
